--- a/data/trans_orig/PLURIPATOLOGIA_DISC-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA_DISC-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95343E30-0B50-4B5F-BF50-D133D564D49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5CF46D-15BE-487F-B3A6-C9FB937C7BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1A5227FF-31E9-4D94-87A3-D86EAB2E5B1F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6C6E662E-379A-44CD-B30F-298A2ACFC689}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="320">
   <si>
     <t>Población con cinco o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -203,10 +203,10 @@
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>1,4%</t>
@@ -215,7 +215,7 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>3,85%</t>
+    <t>3,92%</t>
   </si>
   <si>
     <t>98,44%</t>
@@ -224,16 +224,16 @@
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>96,15%</t>
+    <t>96,08%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -245,31 +245,28 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,19%</t>
+    <t>2,25%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>97,81%</t>
+    <t>97,75%</t>
   </si>
   <si>
     <t>99,62%</t>
@@ -278,763 +275,730 @@
     <t>95,94%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>93,91%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>2,7%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>96,53%</t>
   </si>
   <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>96,98%</t>
   </si>
   <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>95,76%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256D68B9-867A-4374-AE2C-0198C9950021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79269689-BE02-439F-811B-ED6109EF86DD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2509,7 +2473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7DFC51-820B-4E9E-81C0-15AD2DF26980}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B5DBF-ADA9-4701-9F94-D01CDEEBEA46}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2818,13 +2782,13 @@
         <v>30232</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2803,13 @@
         <v>581227</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H8" s="7">
         <v>529</v>
@@ -2854,13 +2818,13 @@
         <v>561389</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M8" s="7">
         <v>1075</v>
@@ -2869,13 +2833,13 @@
         <v>1142617</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2907,13 @@
         <v>17685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -2958,13 +2922,13 @@
         <v>49025</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -2973,13 +2937,13 @@
         <v>66710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2958,13 @@
         <v>1000262</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>895</v>
@@ -3009,13 +2973,13 @@
         <v>983159</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M11" s="7">
         <v>1815</v>
@@ -3024,13 +2988,13 @@
         <v>1983421</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3062,13 @@
         <v>12488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -3113,13 +3077,13 @@
         <v>26801</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3128,13 +3092,13 @@
         <v>39288</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3113,13 @@
         <v>745135</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>680</v>
@@ -3164,13 +3128,13 @@
         <v>750373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M14" s="7">
         <v>1358</v>
@@ -3179,13 +3143,13 @@
         <v>1495509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3217,13 @@
         <v>9019</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -3268,13 +3232,13 @@
         <v>51752</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -3283,13 +3247,13 @@
         <v>60771</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3268,13 @@
         <v>938720</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>955</v>
@@ -3319,13 +3283,13 @@
         <v>1000149</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>1856</v>
@@ -3334,13 +3298,13 @@
         <v>1938869</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3372,13 @@
         <v>45668</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>143</v>
@@ -3423,13 +3387,13 @@
         <v>154531</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>185</v>
@@ -3438,13 +3402,13 @@
         <v>200200</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3423,13 @@
         <v>3381111</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>3155</v>
@@ -3474,13 +3438,13 @@
         <v>3403778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>6322</v>
@@ -3489,13 +3453,13 @@
         <v>6784888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,7 +3536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B0C366-8393-40BB-AB8D-CF50A00F2607}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B1347C-FAF9-4A46-8CD1-54B30D22C5EE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3589,7 +3553,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3696,13 +3660,13 @@
         <v>2717</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3711,13 +3675,13 @@
         <v>5255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3726,13 +3690,13 @@
         <v>7972</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3711,13 @@
         <v>113829</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
@@ -3762,13 +3726,13 @@
         <v>108105</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="M5" s="7">
         <v>220</v>
@@ -3777,13 +3741,13 @@
         <v>221934</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3815,13 @@
         <v>7883</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -3866,13 +3830,13 @@
         <v>26892</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -3881,13 +3845,13 @@
         <v>34775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,13 +3866,13 @@
         <v>550371</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>526</v>
@@ -3917,13 +3881,13 @@
         <v>532587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="M8" s="7">
         <v>1057</v>
@@ -3932,13 +3896,13 @@
         <v>1082958</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +3970,13 @@
         <v>7087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4021,13 +3985,13 @@
         <v>30407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -4036,13 +4000,13 @@
         <v>37494</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4021,13 @@
         <v>1015344</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>951</v>
@@ -4072,13 +4036,13 @@
         <v>1012506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>1895</v>
@@ -4087,13 +4051,13 @@
         <v>2027850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,10 +4128,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4176,13 +4140,13 @@
         <v>23981</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -4191,13 +4155,13 @@
         <v>30211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,10 +4179,10 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
         <v>715</v>
@@ -4227,13 +4191,13 @@
         <v>761030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>1405</v>
@@ -4242,13 +4206,13 @@
         <v>1514352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4280,13 @@
         <v>9667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4331,13 +4295,13 @@
         <v>41741</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -4346,13 +4310,13 @@
         <v>51409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4331,13 @@
         <v>927900</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>924</v>
@@ -4382,13 +4346,13 @@
         <v>1002038</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>1847</v>
@@ -4397,13 +4361,13 @@
         <v>1929937</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4465,13 @@
         <v>161860</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4486,13 @@
         <v>3360766</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H20" s="7">
         <v>3226</v>
@@ -4537,13 +4501,13 @@
         <v>3416265</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M20" s="7">
         <v>6424</v>
@@ -4552,13 +4516,13 @@
         <v>6777032</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,7 +4599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBF7D15-5ECE-44A7-A0C7-67E1D115FE26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5752C801-4306-4B9C-A192-FA93FD141AE7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4652,7 +4616,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4759,13 +4723,13 @@
         <v>3426</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -4774,13 +4738,13 @@
         <v>10789</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4789,13 +4753,13 @@
         <v>14214</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4774,13 @@
         <v>98556</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H5" s="7">
         <v>218</v>
@@ -4825,13 +4789,13 @@
         <v>119944</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -4840,13 +4804,13 @@
         <v>218501</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4878,13 @@
         <v>25504</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -4929,13 +4893,13 @@
         <v>35915</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7">
         <v>111</v>
@@ -4944,13 +4908,13 @@
         <v>61418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4929,13 @@
         <v>524319</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>922</v>
@@ -4980,13 +4944,13 @@
         <v>584052</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>1499</v>
@@ -4995,13 +4959,13 @@
         <v>1108372</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5033,13 @@
         <v>24208</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -5084,13 +5048,13 @@
         <v>63558</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -5099,13 +5063,13 @@
         <v>87765</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5084,13 @@
         <v>1015040</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>1406</v>
@@ -5135,13 +5099,13 @@
         <v>996521</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>2336</v>
@@ -5150,13 +5114,13 @@
         <v>2011562</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5188,13 @@
         <v>21482</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>73</v>
@@ -5239,13 +5203,13 @@
         <v>48817</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -5254,13 +5218,13 @@
         <v>70299</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5239,13 @@
         <v>707290</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>974</v>
@@ -5290,13 +5254,13 @@
         <v>825554</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>1627</v>
@@ -5305,13 +5269,13 @@
         <v>1532843</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5343,13 @@
         <v>25679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="H16" s="7">
         <v>113</v>
@@ -5394,13 +5358,13 @@
         <v>82089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
         <v>146</v>
@@ -5409,13 +5373,13 @@
         <v>107768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>136</v>
+        <v>297</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5394,13 @@
         <v>939724</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>124</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>1449</v>
@@ -5445,13 +5409,13 @@
         <v>1068343</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>2422</v>
@@ -5460,13 +5424,13 @@
         <v>2008067</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>143</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5498,13 @@
         <v>100298</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>398</v>
@@ -5549,13 +5513,13 @@
         <v>241167</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>528</v>
@@ -5564,13 +5528,13 @@
         <v>341465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5549,13 @@
         <v>3284930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>4969</v>
@@ -5600,28 +5564,28 @@
         <v>3594414</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>8215</v>
       </c>
       <c r="N20" s="7">
-        <v>6879344</v>
+        <v>6879343</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,7 +5627,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/PLURIPATOLOGIA_DISC-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA_DISC-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5CF46D-15BE-487F-B3A6-C9FB937C7BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50616CF6-6AE5-4765-A4A2-D16940A35BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6C6E662E-379A-44CD-B30F-298A2ACFC689}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{422BDFB7-E73E-4686-925B-44E52B80C10E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="338">
   <si>
     <t>Población con cinco o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -128,7 +128,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -143,7 +143,7 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -203,10 +203,10 @@
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>1,4%</t>
@@ -215,7 +215,7 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>3,92%</t>
+    <t>3,9%</t>
   </si>
   <si>
     <t>98,44%</t>
@@ -224,16 +224,16 @@
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>96,08%</t>
+    <t>96,1%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -245,709 +245,763 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,25%</t>
+    <t>2,11%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>6,09%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>96,31%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
   </si>
   <si>
     <t>95,83%</t>
@@ -1410,7 +1464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79269689-BE02-439F-811B-ED6109EF86DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A743805E-8F56-4BBB-A018-989BFEC98F98}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2357,7 +2411,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2387,7 +2441,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2408,7 +2462,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2438,7 +2492,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2473,7 +2527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B5DBF-ADA9-4701-9F94-D01CDEEBEA46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8265F39B-41AE-45D3-8F0B-37333FF3CCEF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2782,13 +2836,13 @@
         <v>30232</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2857,13 @@
         <v>581227</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7">
         <v>529</v>
@@ -2818,13 +2872,13 @@
         <v>561389</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M8" s="7">
         <v>1075</v>
@@ -2833,13 +2887,13 @@
         <v>1142617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2961,13 @@
         <v>17685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -2922,13 +2976,13 @@
         <v>49025</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -2937,13 +2991,13 @@
         <v>66710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +3012,13 @@
         <v>1000262</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="H11" s="7">
         <v>895</v>
@@ -2973,13 +3027,13 @@
         <v>983159</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M11" s="7">
         <v>1815</v>
@@ -2988,13 +3042,13 @@
         <v>1983421</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3116,13 @@
         <v>12488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -3077,13 +3131,13 @@
         <v>26801</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3092,13 +3146,13 @@
         <v>39288</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3167,13 @@
         <v>745135</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
         <v>680</v>
@@ -3128,13 +3182,13 @@
         <v>750373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>1358</v>
@@ -3143,13 +3197,13 @@
         <v>1495509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3271,13 @@
         <v>9019</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -3232,13 +3286,13 @@
         <v>51752</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -3247,13 +3301,13 @@
         <v>60771</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3322,13 @@
         <v>938720</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>955</v>
@@ -3283,13 +3337,13 @@
         <v>1000149</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M17" s="7">
         <v>1856</v>
@@ -3298,13 +3352,13 @@
         <v>1938869</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3426,13 @@
         <v>45668</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>143</v>
@@ -3387,13 +3441,13 @@
         <v>154531</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>185</v>
@@ -3402,13 +3456,13 @@
         <v>200200</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3477,13 @@
         <v>3381111</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>3155</v>
@@ -3438,13 +3492,13 @@
         <v>3403778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>6322</v>
@@ -3453,13 +3507,13 @@
         <v>6784888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,7 +3590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B1347C-FAF9-4A46-8CD1-54B30D22C5EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A62BC3-FCC3-4B7B-AB96-DDD4AFE9AD25}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3553,7 +3607,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3660,13 +3714,13 @@
         <v>2717</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3675,13 +3729,13 @@
         <v>5255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3690,13 +3744,13 @@
         <v>7972</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3765,13 @@
         <v>113829</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
@@ -3726,13 +3780,13 @@
         <v>108105</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M5" s="7">
         <v>220</v>
@@ -3741,13 +3795,13 @@
         <v>221934</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3869,13 @@
         <v>7883</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -3830,13 +3884,13 @@
         <v>26892</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -3845,13 +3899,13 @@
         <v>34775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3920,13 @@
         <v>550371</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>526</v>
@@ -3881,13 +3935,13 @@
         <v>532587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>1057</v>
@@ -3896,13 +3950,13 @@
         <v>1082958</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +4024,13 @@
         <v>7087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3985,13 +4039,13 @@
         <v>30407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -4000,13 +4054,13 @@
         <v>37494</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4075,13 @@
         <v>1015344</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>951</v>
@@ -4036,13 +4090,13 @@
         <v>1012506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>1895</v>
@@ -4051,13 +4105,13 @@
         <v>2027850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,7 +4185,7 @@
         <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4140,13 +4194,13 @@
         <v>23981</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -4155,13 +4209,13 @@
         <v>30211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,7 +4233,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -4191,13 +4245,13 @@
         <v>761030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>1405</v>
@@ -4206,13 +4260,13 @@
         <v>1514352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4334,13 @@
         <v>9667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4295,13 +4349,13 @@
         <v>41741</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -4310,13 +4364,13 @@
         <v>51409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4385,13 @@
         <v>927900</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>924</v>
@@ -4346,13 +4400,13 @@
         <v>1002038</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>1847</v>
@@ -4361,13 +4415,13 @@
         <v>1929937</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4489,13 @@
         <v>33584</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -4450,13 +4504,13 @@
         <v>128277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
         <v>145</v>
@@ -4465,13 +4519,13 @@
         <v>161860</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4540,13 @@
         <v>3360766</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>3226</v>
@@ -4501,13 +4555,13 @@
         <v>3416265</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>6424</v>
@@ -4516,13 +4570,13 @@
         <v>6777032</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>91</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,7 +4653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5752C801-4306-4B9C-A192-FA93FD141AE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93CDB53-17EF-4B80-9CDD-0A76C3801F79}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4616,7 +4670,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4723,13 +4777,13 @@
         <v>3426</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -4738,13 +4792,13 @@
         <v>10789</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4753,13 +4807,13 @@
         <v>14214</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4828,13 @@
         <v>98556</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>218</v>
@@ -4789,13 +4843,13 @@
         <v>119944</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -4804,13 +4858,13 @@
         <v>218501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,13 +4932,13 @@
         <v>25504</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -4893,13 +4947,13 @@
         <v>35915</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>111</v>
@@ -4908,13 +4962,13 @@
         <v>61418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,13 +4983,13 @@
         <v>524319</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H8" s="7">
         <v>922</v>
@@ -4944,13 +4998,13 @@
         <v>584052</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
         <v>1499</v>
@@ -4959,13 +5013,13 @@
         <v>1108372</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5087,13 @@
         <v>24208</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -5048,13 +5102,13 @@
         <v>63558</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -5063,13 +5117,13 @@
         <v>87765</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5138,13 @@
         <v>1015040</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>1406</v>
@@ -5099,13 +5153,13 @@
         <v>996521</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>2336</v>
@@ -5114,13 +5168,13 @@
         <v>2011562</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5242,13 @@
         <v>21482</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>73</v>
@@ -5203,13 +5257,13 @@
         <v>48817</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -5218,13 +5272,13 @@
         <v>70299</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5293,13 @@
         <v>707290</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>974</v>
@@ -5254,13 +5308,13 @@
         <v>825554</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>1627</v>
@@ -5269,13 +5323,13 @@
         <v>1532843</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5397,13 @@
         <v>25679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>113</v>
@@ -5358,13 +5412,13 @@
         <v>82089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>146</v>
@@ -5373,13 +5427,13 @@
         <v>107768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5448,13 @@
         <v>939724</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>1449</v>
@@ -5409,13 +5463,13 @@
         <v>1068343</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>2422</v>
@@ -5424,13 +5478,13 @@
         <v>2008067</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5552,13 @@
         <v>100298</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>398</v>
@@ -5513,13 +5567,13 @@
         <v>241167</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
         <v>528</v>
@@ -5528,13 +5582,13 @@
         <v>341465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5603,13 @@
         <v>3284930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="H20" s="7">
         <v>4969</v>
@@ -5564,13 +5618,13 @@
         <v>3594414</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>8215</v>
@@ -5579,13 +5633,13 @@
         <v>6879343</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/PLURIPATOLOGIA_DISC-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA_DISC-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50616CF6-6AE5-4765-A4A2-D16940A35BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F05E2A65-C726-4C97-808E-F1FB271D1ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{422BDFB7-E73E-4686-925B-44E52B80C10E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B1E8662D-2932-41C4-9AC7-CCFA47CB06C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="332">
   <si>
     <t>Población con cinco o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -203,10 +203,10 @@
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>1,4%</t>
@@ -215,7 +215,7 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>3,9%</t>
+    <t>3,85%</t>
   </si>
   <si>
     <t>98,44%</t>
@@ -224,16 +224,16 @@
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>96,1%</t>
+    <t>96,15%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -245,31 +245,31 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,11%</t>
+    <t>2,19%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>97,89%</t>
+    <t>97,81%</t>
   </si>
   <si>
     <t>99,62%</t>
@@ -278,19 +278,19 @@
     <t>95,94%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>1,74%</t>
@@ -299,760 +299,742 @@
     <t>1,06%</t>
   </si>
   <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>97,26%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A743805E-8F56-4BBB-A018-989BFEC98F98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664DDB96-A16D-4A43-AC0F-FC2083935A63}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2411,7 +2393,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2441,7 +2423,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2462,7 +2444,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2492,7 +2474,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2527,7 +2509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8265F39B-41AE-45D3-8F0B-37333FF3CCEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4498A21B-EF5D-489C-B867-64527DF8A6C1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3146,13 +3128,13 @@
         <v>39288</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,10 +3179,10 @@
         <v>1495509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>117</v>
@@ -3271,13 +3253,13 @@
         <v>9019</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -3286,13 +3268,13 @@
         <v>51752</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -3301,13 +3283,13 @@
         <v>60771</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3304,13 @@
         <v>938720</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="H17" s="7">
         <v>955</v>
@@ -3337,13 +3319,13 @@
         <v>1000149</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M17" s="7">
         <v>1856</v>
@@ -3352,13 +3334,13 @@
         <v>1938869</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3408,13 @@
         <v>45668</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>143</v>
@@ -3441,13 +3423,13 @@
         <v>154531</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>185</v>
@@ -3456,13 +3438,13 @@
         <v>200200</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3459,13 @@
         <v>3381111</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>3155</v>
@@ -3492,13 +3474,13 @@
         <v>3403778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>6322</v>
@@ -3507,13 +3489,13 @@
         <v>6784888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,7 +3572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A62BC3-FCC3-4B7B-AB96-DDD4AFE9AD25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6352DF7-0F39-4781-85C8-49EE03167B8D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3607,7 +3589,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3714,13 +3696,13 @@
         <v>2717</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3729,13 +3711,13 @@
         <v>5255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -3744,13 +3726,13 @@
         <v>7972</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3747,13 @@
         <v>113829</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
@@ -3780,13 +3762,13 @@
         <v>108105</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>220</v>
@@ -3795,13 +3777,13 @@
         <v>221934</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3851,13 @@
         <v>7883</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -3884,13 +3866,13 @@
         <v>26892</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -3899,13 +3881,13 @@
         <v>34775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3902,13 @@
         <v>550371</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>526</v>
@@ -3935,13 +3917,13 @@
         <v>532587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>1057</v>
@@ -3950,13 +3932,13 @@
         <v>1082958</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4006,13 @@
         <v>7087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4039,13 +4021,13 @@
         <v>30407</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -4054,13 +4036,13 @@
         <v>37494</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4057,13 @@
         <v>1015344</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>951</v>
@@ -4090,13 +4072,13 @@
         <v>1012506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>1895</v>
@@ -4105,13 +4087,13 @@
         <v>2027850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,10 +4164,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4194,13 +4176,13 @@
         <v>23981</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -4209,13 +4191,13 @@
         <v>30211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,10 +4215,10 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14" s="7">
         <v>715</v>
@@ -4245,13 +4227,13 @@
         <v>761030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>1405</v>
@@ -4260,13 +4242,13 @@
         <v>1514352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4316,13 @@
         <v>9667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4349,13 +4331,13 @@
         <v>41741</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -4364,13 +4346,13 @@
         <v>51409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4367,13 @@
         <v>927900</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>924</v>
@@ -4400,13 +4382,13 @@
         <v>1002038</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>1847</v>
@@ -4415,13 +4397,13 @@
         <v>1929937</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4471,13 @@
         <v>33584</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -4504,13 +4486,13 @@
         <v>128277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="M19" s="7">
         <v>145</v>
@@ -4519,13 +4501,13 @@
         <v>161860</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4522,13 @@
         <v>3360766</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H20" s="7">
         <v>3226</v>
@@ -4555,13 +4537,13 @@
         <v>3416265</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
         <v>6424</v>
@@ -4570,13 +4552,13 @@
         <v>6777032</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,7 +4635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93CDB53-17EF-4B80-9CDD-0A76C3801F79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F24B39-A0DB-4AC8-9F90-A4081898182B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4670,7 +4652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4777,13 +4759,13 @@
         <v>3426</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -4792,13 +4774,13 @@
         <v>10789</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4807,13 +4789,13 @@
         <v>14214</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4810,13 @@
         <v>98556</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H5" s="7">
         <v>218</v>
@@ -4843,13 +4825,13 @@
         <v>119944</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -4858,13 +4840,13 @@
         <v>218501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4914,13 @@
         <v>25504</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -4947,13 +4929,13 @@
         <v>35915</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>111</v>
@@ -4962,13 +4944,13 @@
         <v>61418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4965,13 @@
         <v>524319</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>922</v>
@@ -4998,13 +4980,13 @@
         <v>584052</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>1499</v>
@@ -5013,13 +4995,13 @@
         <v>1108372</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5069,13 @@
         <v>24208</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -5102,13 +5084,13 @@
         <v>63558</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -5117,13 +5099,13 @@
         <v>87765</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5120,13 @@
         <v>1015040</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>1406</v>
@@ -5153,13 +5135,13 @@
         <v>996521</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>2336</v>
@@ -5168,13 +5150,13 @@
         <v>2011562</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5224,13 @@
         <v>21482</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>73</v>
@@ -5257,13 +5239,13 @@
         <v>48817</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>120</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -5272,13 +5254,13 @@
         <v>70299</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5275,13 @@
         <v>707290</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>974</v>
@@ -5308,13 +5290,13 @@
         <v>825554</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>1627</v>
@@ -5323,13 +5305,13 @@
         <v>1532843</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5379,13 @@
         <v>25679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>113</v>
@@ -5412,13 +5394,13 @@
         <v>82089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>146</v>
@@ -5427,13 +5409,13 @@
         <v>107768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>136</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5430,13 @@
         <v>939724</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>1449</v>
@@ -5463,13 +5445,13 @@
         <v>1068343</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>2422</v>
@@ -5478,13 +5460,13 @@
         <v>2008067</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>143</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5534,13 @@
         <v>100298</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>398</v>
@@ -5567,13 +5549,13 @@
         <v>241167</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>528</v>
@@ -5582,13 +5564,13 @@
         <v>341465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5585,13 @@
         <v>3284930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>4969</v>
@@ -5618,28 +5600,28 @@
         <v>3594414</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>8215</v>
       </c>
       <c r="N20" s="7">
-        <v>6879343</v>
+        <v>6879344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,7 +5663,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
